--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value683.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value683.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.850249784173722</v>
+        <v>1.529953479766846</v>
       </c>
       <c r="B1">
-        <v>3.01853029721962</v>
+        <v>1.752193212509155</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.766326069831848</v>
       </c>
       <c r="D1">
-        <v>0.5005370464529562</v>
+        <v>2.20918083190918</v>
       </c>
       <c r="E1">
-        <v>0.392414065704613</v>
+        <v>3.332983732223511</v>
       </c>
     </row>
   </sheetData>
